--- a/biology/Botanique/Lachenalia/Lachenalia.xlsx
+++ b/biology/Botanique/Lachenalia/Lachenalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lachenalia est un genre de plantes vivaces bulbeuses de la famille des Asparagacées, sous-famille des Scilloideae, que l'on trouve généralement en Namibie et en Afrique du Sud. La plupart d'entre eux ont une période de dormance, mais de nouvelles racines pousseront toujours chaque année.
-Lachenalia porte le nom du botaniste suisse Werner de Lachenal (1736-1800)[2]. Les espèces sont parfois connues sous le nom de primevère du Cap, bien qu'elles ne soient pas directement liées à la véritable primevère Primula veris.
+Lachenalia porte le nom du botaniste suisse Werner de Lachenal (1736-1800). Les espèces sont parfois connues sous le nom de primevère du Cap, bien qu'elles ne soient pas directement liées à la véritable primevère Primula veris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Décembre 2021 , the World Checklist of Selected Plant Families et POWO  acceptent les 135 espèces ci-dessous:
 Lachenalia adamii                                 G.D.Duncan
@@ -679,18 +693,20 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces sont cultivées comme plantes de jardin. Les plantes suivantes ont remporté le prix du mérite du jardin de la Royal Horticultural Society[3] .
-Lachenalia ‘Rupert’[4]
-Lachenalia bulbifera ‘George’[5]
-Lachenalia contaminata[6]
-Lachenalia corymbosa[7]
-Lachenalia flava[8]
-Lachenalia pustulata[9]
-Lachenalia quadricolor[10]
-Lachenalia vanzyliae[11]
-Lachenalia viridiflora[12]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces sont cultivées comme plantes de jardin. Les plantes suivantes ont remporté le prix du mérite du jardin de la Royal Horticultural Society .
+Lachenalia ‘Rupert’
+Lachenalia bulbifera ‘George’
+Lachenalia contaminata
+Lachenalia corymbosa
+Lachenalia flava
+Lachenalia pustulata
+Lachenalia quadricolor
+Lachenalia vanzyliae
+Lachenalia viridiflora
 </t>
         </is>
       </c>
